--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Revilliod/Pierre_Revilliod.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Revilliod/Pierre_Revilliod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Revilliod, né le 12 janvier 1883 à Genève et mort le 12 septembre 1954 dans cette même ville, est un naturaliste suisse, notamment spécialisé dans l'étude des fossiles de chauves-souris. Il travaille en tant que chercheur puis dirige le Muséum d'histoire naturelle de Genève de 1927 jusqu'à sa retraite en 1953, quand Émile Dottrens lui succède.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pierre Revilliod est le dédicataire des espèces suivantes :
-Clubiona revilliodi Lessert, 1936[1], une araignée du Mozambique
-Proisotoma revilliodi Gisin, 1940[2], désormais synonyme de Pachyotoma topsenti (Denis, 1948), un collembole européen</t>
+Clubiona revilliodi Lessert, 1936, une araignée du Mozambique
+Proisotoma revilliodi Gisin, 1940, désormais synonyme de Pachyotoma topsenti (Denis, 1948), un collembole européen</t>
         </is>
       </c>
     </row>
